--- a/Clients.xlsx
+++ b/Clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Bureau\projet PSI\PSI-Rendu1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14AD8BA9-A65B-411E-824D-7074B4CCEA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB9E277-64A4-453C-95E3-4A33A3314BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3975" windowWidth="22425" windowHeight="11295" xr2:uid="{EE760451-9047-4F87-89CC-3C896DF73800}"/>
+    <workbookView xWindow="2460" yWindow="3360" windowWidth="22425" windowHeight="11295" xr2:uid="{5CD65B7C-27A1-44D3-BA3C-439E3C2A38C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,436 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
+  <si>
+    <t>IdClient</t>
+  </si>
+  <si>
+    <t>NomC</t>
+  </si>
+  <si>
+    <t>PrénomC</t>
+  </si>
+  <si>
+    <t>AdresseC</t>
+  </si>
+  <si>
+    <t>TelephoneC</t>
+  </si>
+  <si>
+    <t>EmailC</t>
+  </si>
+  <si>
+    <t>regimeAlC</t>
+  </si>
+  <si>
+    <t>Id_Utilisateur</t>
+  </si>
+  <si>
+    <t>CL0</t>
+  </si>
+  <si>
+    <t>Durand</t>
+  </si>
+  <si>
+    <t>Medhy</t>
+  </si>
+  <si>
+    <t>rue du colisée</t>
+  </si>
+  <si>
+    <t>Mdurand@gmail.com</t>
+  </si>
+  <si>
+    <t>halal</t>
+  </si>
+  <si>
+    <t>Durand94</t>
+  </si>
+  <si>
+    <t>CL1</t>
+  </si>
+  <si>
+    <t>Adli</t>
+  </si>
+  <si>
+    <t>Bouzguenda</t>
+  </si>
+  <si>
+    <t>rue de Rivoli</t>
+  </si>
+  <si>
+    <t>Abouzguenda@gmail.com</t>
+  </si>
+  <si>
+    <t>AdliBB</t>
+  </si>
+  <si>
+    <t>CL2</t>
+  </si>
+  <si>
+    <t>Lemoine</t>
+  </si>
+  <si>
+    <t>Benoit</t>
+  </si>
+  <si>
+    <t>rue de la République</t>
+  </si>
+  <si>
+    <t>benoit.lemoine@example.com</t>
+  </si>
+  <si>
+    <t>végétarien</t>
+  </si>
+  <si>
+    <t>Beubeu4</t>
+  </si>
+  <si>
+    <t>CL3</t>
+  </si>
+  <si>
+    <t>Dubois</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>avenue de la Liberté</t>
+  </si>
+  <si>
+    <t>marc.dubois@example.com</t>
+  </si>
+  <si>
+    <t>sans gluten</t>
+  </si>
+  <si>
+    <t>Marc92</t>
+  </si>
+  <si>
+    <t>CL4</t>
+  </si>
+  <si>
+    <t>Garnier</t>
+  </si>
+  <si>
+    <t>Cyril</t>
+  </si>
+  <si>
+    <t>boulevard de la Victoire</t>
+  </si>
+  <si>
+    <t>cyril.garnier@example.com</t>
+  </si>
+  <si>
+    <t>Cyril23</t>
+  </si>
+  <si>
+    <t>CL5</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>Emi</t>
+  </si>
+  <si>
+    <t>rue de la Paix</t>
+  </si>
+  <si>
+    <t>emin.roche@example.com</t>
+  </si>
+  <si>
+    <t>rien</t>
+  </si>
+  <si>
+    <t>Eminem1</t>
+  </si>
+  <si>
+    <t>CL6</t>
+  </si>
+  <si>
+    <t>Fournier</t>
+  </si>
+  <si>
+    <t>Bertrand</t>
+  </si>
+  <si>
+    <t>avenue des Champs</t>
+  </si>
+  <si>
+    <t>bertrand.fournier@example.com</t>
+  </si>
+  <si>
+    <t>Bertand2</t>
+  </si>
+  <si>
+    <t>CL7</t>
+  </si>
+  <si>
+    <t>Dupont</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>rue de la Victoire</t>
+  </si>
+  <si>
+    <t>lucas.dupont@example.com</t>
+  </si>
+  <si>
+    <t>LucasD</t>
+  </si>
+  <si>
+    <t>CL8</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>boulevard de la Paix</t>
+  </si>
+  <si>
+    <t>emma.garnier@example.com</t>
+  </si>
+  <si>
+    <t>végétalien</t>
+  </si>
+  <si>
+    <t>EmmaG</t>
+  </si>
+  <si>
+    <t>CL10</t>
+  </si>
+  <si>
+    <t>avenue de la Paix</t>
+  </si>
+  <si>
+    <t>GreenThumb</t>
+  </si>
+  <si>
+    <t>CL11</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>antoine.roche@example.com</t>
+  </si>
+  <si>
+    <t>sans lactose</t>
+  </si>
+  <si>
+    <t>CakeDesigner</t>
+  </si>
+  <si>
+    <t>CL12</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>alice.martin@example.com</t>
+  </si>
+  <si>
+    <t>FlavorGuru</t>
+  </si>
+  <si>
+    <t>CL13</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>avenue de la Victoire</t>
+  </si>
+  <si>
+    <t>julien.dupont@example.com</t>
+  </si>
+  <si>
+    <t>pâtisserie</t>
+  </si>
+  <si>
+    <t>FoodieFun</t>
+  </si>
+  <si>
+    <t>CL14</t>
+  </si>
+  <si>
+    <t>Lefèvre</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>claire.lefevre@example.com</t>
+  </si>
+  <si>
+    <t>cuisine italienne</t>
+  </si>
+  <si>
+    <t>KitchenStar</t>
+  </si>
+  <si>
+    <t>CL15</t>
+  </si>
+  <si>
+    <t>Rousseau</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>thomas.rousseau@example.com</t>
+  </si>
+  <si>
+    <t>cuisine asiatique</t>
+  </si>
+  <si>
+    <t>VeganVoyager</t>
+  </si>
+  <si>
+    <t>CL16</t>
+  </si>
+  <si>
+    <t>Gauthier</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>marie.gauthier@example.com</t>
+  </si>
+  <si>
+    <t>cuisine végétarienne</t>
+  </si>
+  <si>
+    <t>DessertDiva</t>
+  </si>
+  <si>
+    <t>CL17</t>
+  </si>
+  <si>
+    <t>Moreau</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>paul.moreau@example.com</t>
+  </si>
+  <si>
+    <t>cuisine méditerranéenne</t>
+  </si>
+  <si>
+    <t>MealMaestro</t>
+  </si>
+  <si>
+    <t>CL18</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>sophie.lemoine@example.com</t>
+  </si>
+  <si>
+    <t>cuisine fusion</t>
+  </si>
+  <si>
+    <t>GourmetGuru</t>
+  </si>
+  <si>
+    <t>CL19</t>
+  </si>
+  <si>
+    <t>TastyTreats</t>
+  </si>
+  <si>
+    <t>CL20</t>
+  </si>
+  <si>
+    <t>YumYum</t>
+  </si>
+  <si>
+    <t>CL21</t>
+  </si>
+  <si>
+    <t>DelishDiner</t>
+  </si>
+  <si>
+    <t>CL22</t>
+  </si>
+  <si>
+    <t>SavorySavor</t>
+  </si>
+  <si>
+    <t>CL23</t>
+  </si>
+  <si>
+    <t>SnackSavvy</t>
+  </si>
+  <si>
+    <t>CL24</t>
+  </si>
+  <si>
+    <t>NourishNinja</t>
+  </si>
+  <si>
+    <t>CL25</t>
+  </si>
+  <si>
+    <t>EpicEater</t>
+  </si>
+  <si>
+    <t>CL26</t>
+  </si>
+  <si>
+    <t>CulinaryChamp</t>
+  </si>
+  <si>
+    <t>CL27</t>
+  </si>
+  <si>
+    <t>DineDreamer</t>
+  </si>
+  <si>
+    <t>FeastFanatic</t>
+  </si>
+  <si>
+    <t>CL9</t>
+  </si>
+  <si>
+    <t>Gard</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>emma.gard@example.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +487,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,13 +828,782 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D12051-D8B8-4419-AC50-B36BD9CAFD94}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF652B4A-EDA5-47D6-B5BB-2CB52967255B}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>12348653</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>12314853</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>12345698</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>87654322</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>12398765</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>55512365</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>98765433</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>12345680</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>87654325</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>98765430</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12">
+        <v>12345680</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>87654322</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14">
+        <v>12398762</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <v>55512342</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>98765433</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>12345673</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>87654323</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>12398763</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>55512344</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21">
+        <v>98765435</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>12345674</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>87654324</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>12398764</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>55512346</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <v>98765436</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>12345675</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>87654325</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29">
+        <v>12398766</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{8A9C52D8-AB5E-4CD8-9961-D9B63EDABC09}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>